--- a/ECPRM1.xlsx
+++ b/ECPRM1.xlsx
@@ -11,27 +11,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t/>
   </si>
   <si>
+    <t>20035632</t>
+  </si>
+  <si>
+    <t>BEBELAC1+ MDU KLG800</t>
+  </si>
+  <si>
+    <t>ECPRM1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>RT,(E-2B)</t>
+  </si>
+  <si>
     <t>20035630</t>
   </si>
   <si>
     <t>BEBELAC1+ VNL KLG800</t>
   </si>
   <si>
-    <t>ECPRM1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>RT,(E-2B)</t>
   </si>
   <si>
     <t>20035628</t>
@@ -463,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -507,18 +513,18 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -527,18 +533,18 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -547,18 +553,18 @@
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
@@ -567,18 +573,18 @@
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -587,10 +593,30 @@
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>6</v>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
